--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-job_attribute.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-job_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="172">
   <si>
     <t>类名</t>
   </si>
@@ -501,10 +501,10 @@
     <t>add(com.ruoyi.job.domain.SysJob)</t>
   </si>
   <si>
-    <t>export(javax.servlet.http.HttpServletResponse)</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletResponse</t>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.job.domain.SysJob)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.job.domain.SysJob</t>
   </si>
   <si>
     <t>remove(java.lang.Long[])</t>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>clean()</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.job.domain.SysJobLog)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.job.domain.SysJobLog</t>
   </si>
 </sst>
 </file>
@@ -2546,10 +2552,10 @@
         <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
         <v>157</v>
